--- a/medicine/Psychotrope/Henriette_Henriod/Henriette_Henriod.xlsx
+++ b/medicine/Psychotrope/Henriette_Henriod/Henriette_Henriod.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Henriette Henriod (née en novembre 1734 à Couvet, où elle est morte en novembre 1801[1]) est une guérisseuse qui selon certaines sources serait l'inventrice d'un élixir d'absinthe à l'origine de l'utilisation de la plante comme apéritif en Europe[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Henriette Henriod (née en novembre 1734 à Couvet, où elle est morte en novembre 1801) est une guérisseuse qui selon certaines sources serait l'inventrice d'un élixir d'absinthe à l'origine de l'utilisation de la plante comme apéritif en Europe.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L’origine de la recette de l’absinthe est controversée, et on cite les noms de Pierre Ordinaire  et de Henriette Henriod. Henri-Louis Pernod achète la recette en 1798[3],[4],[5].
-Henriette Henriod[6] fabrique l'élixir d'absinthe à partir de plantes cultivées dans son jardin, d'abord par infusion puis par distillation.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’origine de la recette de l’absinthe est controversée, et on cite les noms de Pierre Ordinaire  et de Henriette Henriod. Henri-Louis Pernod achète la recette en 1798.
+Henriette Henriod fabrique l'élixir d'absinthe à partir de plantes cultivées dans son jardin, d'abord par infusion puis par distillation.
 </t>
         </is>
       </c>
